--- a/pred_ohlcv/54_23/2019-10-14 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-14 PPT ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -418,7 +418,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -438,10 +438,10 @@
         <v>620</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -461,10 +461,10 @@
         <v>612</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -484,10 +484,10 @@
         <v>613</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -691,10 +691,10 @@
         <v>619</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -714,10 +714,10 @@
         <v>619</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -737,10 +737,10 @@
         <v>613</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -760,10 +760,10 @@
         <v>613</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -875,10 +875,10 @@
         <v>613</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -898,10 +898,10 @@
         <v>614</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1174,10 +1174,10 @@
         <v>614</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1197,10 +1197,10 @@
         <v>612</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1335,10 +1335,10 @@
         <v>617</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1361,7 +1361,7 @@
         <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1381,10 +1381,10 @@
         <v>612</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1450,10 +1450,10 @@
         <v>610</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1565,7 +1565,7 @@
         <v>602</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -1588,7 +1588,7 @@
         <v>602</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -1611,7 +1611,7 @@
         <v>602</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -1634,7 +1634,7 @@
         <v>611</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1772,10 +1772,10 @@
         <v>612</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1933,10 +1933,10 @@
         <v>613</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1956,10 +1956,10 @@
         <v>615</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1979,10 +1979,10 @@
         <v>613</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2002,10 +2002,10 @@
         <v>614</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2025,10 +2025,10 @@
         <v>615</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -2232,7 +2232,7 @@
         <v>627</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -2255,7 +2255,7 @@
         <v>627</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -2301,10 +2301,10 @@
         <v>620</v>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -2324,10 +2324,10 @@
         <v>621</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -2347,10 +2347,10 @@
         <v>621</v>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -2370,10 +2370,10 @@
         <v>621</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2393,10 +2393,10 @@
         <v>622</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -2439,10 +2439,10 @@
         <v>625</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -2485,10 +2485,10 @@
         <v>627</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -2508,10 +2508,10 @@
         <v>629</v>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -2534,7 +2534,7 @@
         <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -2557,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2580,7 +2580,7 @@
         <v>2</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -2623,10 +2623,10 @@
         <v>621</v>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -2646,10 +2646,10 @@
         <v>622</v>
       </c>
       <c r="F99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2853,10 +2853,10 @@
         <v>615</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2876,10 +2876,10 @@
         <v>615</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2899,10 +2899,10 @@
         <v>615</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2922,10 +2922,10 @@
         <v>615</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2991,10 +2991,10 @@
         <v>611</v>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3014,10 +3014,10 @@
         <v>607</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -3037,10 +3037,10 @@
         <v>607</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3060,10 +3060,10 @@
         <v>607</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -3086,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3106,10 +3106,10 @@
         <v>612</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -3129,10 +3129,10 @@
         <v>608</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -3152,10 +3152,10 @@
         <v>609</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -3201,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -3221,10 +3221,10 @@
         <v>609</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -3244,10 +3244,10 @@
         <v>610</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -3267,10 +3267,10 @@
         <v>610</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -3313,10 +3313,10 @@
         <v>607</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -3336,10 +3336,10 @@
         <v>606</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -3359,10 +3359,10 @@
         <v>611</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3481,6 +3481,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>